--- a/Category Codes First.xlsx
+++ b/Category Codes First.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Category Code</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>widerangedestore</t>
+  </si>
+  <si>
+    <t>title template</t>
+  </si>
+  <si>
+    <t>#ItemCategory.Description# #ItemAttribute.Display# #ItemAttribute.Type# #ItemAttribute.StoreCat# #ItemAttribute.SubCat# #ItemAttribute.Strapcolor# #ItemAttribute.Gender# #Item.ItemCode#</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,6 +745,14 @@
       </c>
       <c r="H12" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Category Codes First.xlsx
+++ b/Category Codes First.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Category Code</t>
   </si>
@@ -143,6 +143,20 @@
   </si>
   <si>
     <t>#ItemCategory.Description# #ItemAttribute.Display# #ItemAttribute.Type# #ItemAttribute.StoreCat# #ItemAttribute.SubCat# #ItemAttribute.Strapcolor# #ItemAttribute.Gender# #Item.ItemCode#</t>
+  </si>
+  <si>
+    <t>tackles</t>
+  </si>
+  <si>
+    <t>1. Refund Policy : Refund will only be made if there is a manufacturing fault, Dead On Arrival (DOA), or if we made a mistake.
+2. Products  that have been resized, damaged, or otherwise altered after delivery will not be accepted for return. All products must be returned in 
+its original condition - new and unused.
+3. Accepted within 30 days. 
+** Please contact us prior to sending your order back so we are aware of your plans.
+4. There will be a restocking fee for return items that are not in original condition.</t>
+  </si>
+  <si>
+    <t>cloth</t>
   </si>
 </sst>
 </file>
@@ -504,16 +518,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="206" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -747,12 +763,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>179985</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
